--- a/tutorial_12_interface/data/rotation_matrix.xlsx
+++ b/tutorial_12_interface/data/rotation_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\lammps_education_metal_win-master\tutorial_12_interface\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E656FA2C-EBFC-46AB-B4B2-BE9EB6DE446A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97863479-1242-4003-8FB9-1138AF0F11F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="230" windowWidth="10250" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="170" windowWidth="10250" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>angle</t>
     <phoneticPr fontId="1"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>rotation matrix on VESTA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LA</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -99,6 +95,22 @@
   </si>
   <si>
     <t>t8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rotation matrix on VESTA (x axis)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rotation matrix on VESTA (z axis)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rotation matrix on VESTA (y axis)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -459,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -658,7 +670,13 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -671,11 +689,25 @@
       <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="I12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -690,11 +722,25 @@
       <c r="C13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4">
+        <v>-1</v>
+      </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -709,11 +755,25 @@
       <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="I14" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -733,7 +793,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>0</v>
@@ -742,18 +802,18 @@
         <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4">
         <v>7.12</v>
@@ -773,7 +833,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4">
         <v>8.1300000000000008</v>
@@ -793,7 +853,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4">
         <v>9.4629999999999992</v>
@@ -813,7 +873,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="4">
         <v>11.3</v>
@@ -833,7 +893,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="4">
         <v>14.39</v>
@@ -853,7 +913,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="4">
         <v>18.399999999999999</v>
@@ -873,7 +933,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="4">
         <v>26.56</v>
@@ -893,7 +953,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="4">
         <v>45</v>

--- a/tutorial_12_interface/data/rotation_matrix.xlsx
+++ b/tutorial_12_interface/data/rotation_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\lammps_education_metal_win-master\tutorial_12_interface\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97863479-1242-4003-8FB9-1138AF0F11F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69E835B-B245-4113-88EB-AE281C92F1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="170" windowWidth="10250" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2570" yWindow="280" windowWidth="10250" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>angle</t>
     <phoneticPr fontId="1"/>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>rotation matrix on VESTA (y axis)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FCC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BCC</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -142,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -165,11 +173,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -187,6 +206,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -469,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="F11" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -792,182 +814,326 @@
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="4" t="s">
+      <c r="H17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B18" s="4">
         <v>7.12</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C18" s="4">
         <v>8</v>
       </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
         <v>8</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F18" s="8">
         <v>7.7999999999999996E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="4" t="s">
+      <c r="H18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="4">
+        <v>8</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <v>8</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B19" s="4">
         <v>8.1300000000000008</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="4">
         <v>7</v>
       </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
         <v>7</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="7">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="4" t="s">
+      <c r="H19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="4">
+        <v>7</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>7</v>
+      </c>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B20" s="4">
         <v>9.4629999999999992</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="4">
         <v>6</v>
       </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
         <v>6</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F20" s="8">
         <v>1.38E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="4" t="s">
+      <c r="H20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="4">
+        <v>6</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>6</v>
+      </c>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B21" s="4">
         <v>11.3</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="4">
         <v>5</v>
       </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
         <v>5</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="4" t="s">
+      <c r="H21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="4">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B22" s="4">
         <v>14.39</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
         <v>4</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F22" s="7">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="4" t="s">
+      <c r="H22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="4">
+        <v>4</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>4</v>
+      </c>
+      <c r="L22" s="7">
+        <v>3.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B23" s="4">
         <v>18.399999999999999</v>
       </c>
-      <c r="C22" s="4">
-        <v>3</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>3</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="C23" s="4">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3</v>
+      </c>
+      <c r="F23" s="8">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="4" t="s">
+      <c r="H23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>3</v>
+      </c>
+      <c r="L23" s="8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B24" s="4">
         <v>26.56</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C24" s="4">
         <v>2</v>
       </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
         <v>2</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F24" s="8">
         <v>8.0299999999999996E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="4" t="s">
+      <c r="H24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4">
+        <v>3</v>
+      </c>
+      <c r="K24" s="4">
+        <v>7</v>
+      </c>
+      <c r="L24" s="8">
+        <v>4.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B25" s="4">
         <v>45</v>
       </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
         <v>2</v>
       </c>
-      <c r="E24" s="6">
-        <v>3</v>
-      </c>
-      <c r="F24" s="7">
+      <c r="E25" s="6">
+        <v>3</v>
+      </c>
+      <c r="F25" s="7">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
+        <v>3</v>
+      </c>
+      <c r="K25" s="6">
+        <v>4</v>
+      </c>
+      <c r="L25" s="7">
         <v>6.0600000000000001E-2</v>
       </c>
     </row>
